--- a/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,99%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,13</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 2,73</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 0,02</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 2,55</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,47; 303,55</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,14%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 1,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 1,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 3,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,63; 252,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,23; 47,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,59; 472,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,67; 194,14</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 0,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 2,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,62; 47,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,34; 125,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,79; 116,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; 161,48</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>175,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 4,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 0,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 2,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 1,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,44; 523,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,27; 18,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,73; 305,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,91; 111,88</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,33%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 1,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 2,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 1,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 4,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,81; 100,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,62; 162,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,75; 61,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 200,34</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,77%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 1,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 76,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,93; 39,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,1; 58,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 92,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-25,62%</t>
+          <t>-21,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-79,96%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-18,99%</t>
+          <t>21,91%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>-0,57; 1,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,73</t>
+          <t>-2,9; 1,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 0,02</t>
+          <t>-1,27; 1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 2,55</t>
+          <t>-1,15; 1,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,47; 308,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,31; 50,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,01; 182,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,47; 303,55</t>
+          <t>-43,09; 128,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>-26,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,68%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>73,39%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,81</t>
+          <t>-2,03; 0,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,3</t>
+          <t>-0,75; 2,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,05</t>
+          <t>-1,01; 1,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,82</t>
+          <t>-0,14; 2,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 252,78</t>
+          <t>-61,62; 47,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 47,28</t>
+          <t>-21,34; 125,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 472,2</t>
+          <t>-39,79; 116,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 194,14</t>
+          <t>-5,67; 252,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>175,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>-47,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>44,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>-2,7%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,82</t>
+          <t>0,75; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,82</t>
+          <t>-2,83; 0,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,54</t>
+          <t>-0,74; 2,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,25</t>
+          <t>-2,36; 1,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 47,67</t>
+          <t>18,44; 523,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 125,27</t>
+          <t>-77,27; 18,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 116,06</t>
+          <t>-44,73; 305,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 161,48</t>
+          <t>-61,25; 93,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>175,81%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,77%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>-10,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>51,91%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,06</t>
+          <t>-1,14; 1,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,19</t>
+          <t>-0,71; 2,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,18</t>
+          <t>-1,76; 1,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,83</t>
+          <t>-0,25; 3,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 523,59</t>
+          <t>-48,81; 100,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,27; 18,7</t>
+          <t>-28,62; 162,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 305,15</t>
+          <t>-48,75; 61,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,91; 111,88</t>
+          <t>-9,35; 172,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-10,92%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>40,4%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,21</t>
+          <t>-0,29; 1,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,04</t>
+          <t>-0,86; 0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,21</t>
+          <t>-0,47; 0,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,03</t>
+          <t>-0,02; 1,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 100,04</t>
+          <t>-14,59; 76,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 162,78</t>
+          <t>-24,93; 39,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,75; 61,81</t>
+          <t>-20,1; 58,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 200,34</t>
+          <t>-1,11; 97,52</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,58%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>38,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 1,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 0,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 0,99</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 1,75</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; 76,88</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-24,93; 39,13</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-20,1; 58,03</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 92,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,77</t>
+          <t>-0,67; 1,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,24</t>
+          <t>-3,01; 1,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,87</t>
+          <t>-1,06; 1,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,55</t>
+          <t>-1,05; 1,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 308,05</t>
+          <t>-45,74; 326,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 50,06</t>
+          <t>-61,68; 49,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 182,94</t>
+          <t>-42,86; 192,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 128,97</t>
+          <t>-38,26; 162,7</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,82</t>
+          <t>-2,19; 0,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,82</t>
+          <t>-0,55; 2,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,54</t>
+          <t>-0,89; 1,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,63</t>
+          <t>-0,08; 2,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 47,67</t>
+          <t>-63,2; 38,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 125,27</t>
+          <t>-16,89; 131,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 116,06</t>
+          <t>-34,83; 134,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 252,9</t>
+          <t>-4,33; 289,62</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,06</t>
+          <t>0,77; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,19</t>
+          <t>-3,01; 0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,18</t>
+          <t>-0,75; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,51</t>
+          <t>-2,04; 1,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 523,59</t>
+          <t>30,67; 514,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-77,27; 18,7</t>
+          <t>-77,94; 24,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 305,15</t>
+          <t>-44,17; 255,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,25; 93,05</t>
+          <t>-60,93; 92,01</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,21</t>
+          <t>-1,03; 1,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,04</t>
+          <t>-0,76; 1,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,21</t>
+          <t>-1,93; 1,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,41</t>
+          <t>-0,15; 3,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 100,04</t>
+          <t>-44,32; 94,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 162,78</t>
+          <t>-30,91; 157,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,75; 61,81</t>
+          <t>-49,17; 53,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 172,91</t>
+          <t>-5,95; 181,32</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,15</t>
+          <t>-0,29; 1,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,93</t>
+          <t>-0,82; 0,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,99</t>
+          <t>-0,47; 0,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,75</t>
+          <t>0,01; 1,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 76,88</t>
+          <t>-13,36; 80,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 39,13</t>
+          <t>-25,03; 37,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 58,03</t>
+          <t>-20,14; 55,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 97,52</t>
+          <t>0,25; 106,98</t>
         </is>
       </c>
     </row>
